--- a/Documents/MSCW.xlsx
+++ b/Documents/MSCW.xlsx
@@ -32,12 +32,6 @@
     <t>project statement: risks</t>
   </si>
   <si>
-    <t>proces</t>
-  </si>
-  <si>
-    <t>agenda + minutes</t>
-  </si>
-  <si>
     <t>keep logbook during process</t>
   </si>
   <si>
@@ -50,78 +44,9 @@
     <t>Website</t>
   </si>
   <si>
-    <t>Application</t>
-  </si>
-  <si>
-    <t>DB for event registration</t>
-  </si>
-  <si>
     <t>Entrance to camping</t>
   </si>
   <si>
-    <t>DB for camping registration</t>
-  </si>
-  <si>
-    <t>lending stuff</t>
-  </si>
-  <si>
-    <t>DB for lending stuff</t>
-  </si>
-  <si>
-    <t>buying food&amp;drinks</t>
-  </si>
-  <si>
-    <t>DB for buying food &amp; drink</t>
-  </si>
-  <si>
-    <t>exit from event</t>
-  </si>
-  <si>
-    <t>DB for exiting event</t>
-  </si>
-  <si>
-    <t>status overviews of system (use of c++ and/or web)</t>
-  </si>
-  <si>
-    <t>use of stored procedures</t>
-  </si>
-  <si>
-    <t>status of system (other technologies e.g. webservice)</t>
-  </si>
-  <si>
-    <t>software development</t>
-  </si>
-  <si>
-    <t>Application sketch for every application</t>
-  </si>
-  <si>
-    <t>application sketch: gui</t>
-  </si>
-  <si>
-    <t>application sketch: DB</t>
-  </si>
-  <si>
-    <t>application sketch: classes &amp; methods needed</t>
-  </si>
-  <si>
-    <t>Code comment: description of classes</t>
-  </si>
-  <si>
-    <t>Code comment: description of methods</t>
-  </si>
-  <si>
-    <t>presentation</t>
-  </si>
-  <si>
-    <t>clear understanding of target audience</t>
-  </si>
-  <si>
-    <t>demo of some applications</t>
-  </si>
-  <si>
-    <t>time bound</t>
-  </si>
-  <si>
     <t>Must</t>
   </si>
   <si>
@@ -188,17 +113,92 @@
     <t>mailing system</t>
   </si>
   <si>
-    <t>Entrance of event</t>
-  </si>
-  <si>
     <t>Exit from event</t>
+  </si>
+  <si>
+    <t>Entrance to event</t>
+  </si>
+  <si>
+    <t>Exit to camping</t>
+  </si>
+  <si>
+    <t>Shop application</t>
+  </si>
+  <si>
+    <t>Renting equipment</t>
+  </si>
+  <si>
+    <t>Returning equipment</t>
+  </si>
+  <si>
+    <t>Tracking system status</t>
+  </si>
+  <si>
+    <t>Shop Inventory</t>
+  </si>
+  <si>
+    <t>PayPal log file converter</t>
+  </si>
+  <si>
+    <t>Documents</t>
+  </si>
+  <si>
+    <t>agendas</t>
+  </si>
+  <si>
+    <t>process report</t>
+  </si>
+  <si>
+    <t>application descriptions</t>
+  </si>
+  <si>
+    <t>application sketches</t>
+  </si>
+  <si>
+    <t>traceability matrix</t>
+  </si>
+  <si>
+    <t>Applications</t>
+  </si>
+  <si>
+    <t>code comments</t>
+  </si>
+  <si>
+    <t>Database</t>
+  </si>
+  <si>
+    <t>DB for entrance and exit of event</t>
+  </si>
+  <si>
+    <t>DB for buying foods&amp;drinks</t>
+  </si>
+  <si>
+    <t>DB for renting&amp;returning equipment</t>
+  </si>
+  <si>
+    <t>DB for tracking system status</t>
+  </si>
+  <si>
+    <t>DB for storing paypal transactions</t>
+  </si>
+  <si>
+    <t>DB for shop inventory</t>
+  </si>
+  <si>
+    <t>DB for camping</t>
+  </si>
+  <si>
+    <t>user feedback option</t>
+  </si>
+  <si>
+    <t>Multuser database support</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -220,6 +220,12 @@
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -258,7 +264,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.499984740745262"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -291,7 +297,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
@@ -300,6 +306,9 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -640,10 +649,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F59"/>
+  <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -657,21 +666,21 @@
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="1" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="6" t="s">
@@ -683,7 +692,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="6" t="s">
@@ -695,7 +704,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="6" t="s">
@@ -707,7 +716,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="6" t="s">
@@ -719,7 +728,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="6" t="s">
@@ -731,7 +740,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="6" t="s">
@@ -743,7 +752,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="6" t="s">
@@ -767,7 +776,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="6" t="s">
@@ -779,7 +788,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="6" t="s">
@@ -791,7 +800,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="6" t="s">
@@ -803,7 +812,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="6" t="s">
@@ -815,7 +824,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="6" t="s">
@@ -835,7 +844,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="6"/>
@@ -845,7 +854,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="6" t="s">
@@ -857,31 +866,31 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="B18" s="1"/>
-      <c r="C18" s="6"/>
+      <c r="C18" s="6" t="s">
+        <v>1</v>
+      </c>
       <c r="D18" s="3"/>
-      <c r="E18" s="4" t="s">
-        <v>1</v>
-      </c>
+      <c r="E18" s="4"/>
       <c r="F18" s="5"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>6</v>
+      <c r="A19" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="B19" s="1"/>
-      <c r="C19" s="6" t="s">
-        <v>1</v>
-      </c>
+      <c r="C19" s="6"/>
       <c r="D19" s="3"/>
-      <c r="E19" s="4"/>
+      <c r="E19" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="F19" s="5"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>7</v>
+      <c r="A20" s="5" t="s">
+        <v>4</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="6" t="s">
@@ -892,184 +901,184 @@
       <c r="F20" s="5"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
+      <c r="A21" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="B21" s="1"/>
-      <c r="C21" s="6"/>
+      <c r="C21" s="6" t="s">
+        <v>1</v>
+      </c>
       <c r="D21" s="3"/>
       <c r="E21" s="4"/>
       <c r="F21" s="5"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
+      <c r="A22" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="B22" s="1"/>
       <c r="C22" s="6"/>
-      <c r="D22" s="3"/>
+      <c r="D22" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="E22" s="4"/>
       <c r="F22" s="5"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23" s="2"/>
+      <c r="A23" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="1"/>
       <c r="C23" s="6"/>
-      <c r="D23" s="3"/>
+      <c r="D23" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="E23" s="4"/>
       <c r="F23" s="5"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B24" s="1"/>
-      <c r="C24" s="6" t="s">
-        <v>1</v>
-      </c>
+      <c r="C24" s="6"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="4"/>
+      <c r="E24" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="F24" s="5"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>49</v>
-      </c>
+      <c r="A25" s="1"/>
       <c r="B25" s="1"/>
-      <c r="C25" s="6" t="s">
-        <v>1</v>
-      </c>
+      <c r="C25" s="6"/>
       <c r="D25" s="3"/>
       <c r="E25" s="4"/>
       <c r="F25" s="5"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>50</v>
-      </c>
+      <c r="A26" s="1"/>
       <c r="B26" s="1"/>
-      <c r="C26" s="6" t="s">
-        <v>1</v>
-      </c>
+      <c r="C26" s="6"/>
       <c r="D26" s="3"/>
       <c r="E26" s="4"/>
       <c r="F26" s="5"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B27" s="1"/>
+      <c r="A27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" s="2"/>
       <c r="C27" s="6"/>
-      <c r="D27" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="D27" s="3"/>
       <c r="E27" s="4"/>
       <c r="F27" s="5"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="B28" s="1"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="C28" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" s="3"/>
       <c r="E28" s="4"/>
       <c r="F28" s="5"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="B29" s="1"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="C29" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" s="3"/>
       <c r="E29" s="4"/>
       <c r="F29" s="5"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
+      <c r="A30" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="B30" s="1"/>
-      <c r="C30" s="6"/>
+      <c r="C30" s="6" t="s">
+        <v>1</v>
+      </c>
       <c r="D30" s="3"/>
       <c r="E30" s="4"/>
       <c r="F30" s="5"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B31" s="2"/>
+      <c r="A31" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31" s="1"/>
       <c r="C31" s="6"/>
-      <c r="D31" s="3"/>
+      <c r="D31" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="E31" s="4"/>
       <c r="F31" s="5"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="B32" s="1"/>
-      <c r="C32" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D32" s="3"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="E32" s="4"/>
       <c r="F32" s="5"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="B33" s="1"/>
-      <c r="C33" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D33" s="3"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="E33" s="4"/>
       <c r="F33" s="5"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
-        <v>10</v>
+      <c r="A34" s="8" t="s">
+        <v>55</v>
       </c>
       <c r="B34" s="1"/>
-      <c r="C34" s="6" t="s">
-        <v>1</v>
-      </c>
+      <c r="C34" s="6"/>
       <c r="D34" s="3"/>
       <c r="E34" s="4"/>
-      <c r="F34" s="5"/>
+      <c r="F34" s="7" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="A35" s="1"/>
       <c r="B35" s="1"/>
-      <c r="C35" s="6" t="s">
-        <v>1</v>
-      </c>
+      <c r="C35" s="6"/>
       <c r="D35" s="3"/>
       <c r="E35" s="4"/>
       <c r="F35" s="5"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B36" s="1"/>
-      <c r="C36" s="6" t="s">
-        <v>1</v>
-      </c>
+      <c r="A36" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" s="6"/>
       <c r="D36" s="3"/>
       <c r="E36" s="4"/>
       <c r="F36" s="5"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="6" t="s">
@@ -1081,7 +1090,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="6" t="s">
@@ -1093,7 +1102,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="6" t="s">
@@ -1105,7 +1114,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="6" t="s">
@@ -1117,7 +1126,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="6" t="s">
@@ -1129,7 +1138,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="6" t="s">
@@ -1141,7 +1150,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="6" t="s">
@@ -1152,8 +1161,8 @@
       <c r="F43" s="5"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="8" t="s">
-        <v>20</v>
+      <c r="A44" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="6" t="s">
@@ -1165,7 +1174,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="6"/>
@@ -1176,50 +1185,50 @@
       <c r="F45" s="5"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="1"/>
+      <c r="A46" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="B46" s="1"/>
-      <c r="C46" s="6"/>
+      <c r="C46" s="6" t="s">
+        <v>1</v>
+      </c>
       <c r="D46" s="3"/>
       <c r="E46" s="4"/>
       <c r="F46" s="5"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B47" s="2"/>
+      <c r="A47" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47" s="1"/>
       <c r="C47" s="6"/>
       <c r="D47" s="3"/>
-      <c r="E47" s="4"/>
+      <c r="E47" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="F47" s="5"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="4" t="s">
-        <v>23</v>
-      </c>
+      <c r="A48" s="1"/>
       <c r="B48" s="1"/>
-      <c r="C48" s="6" t="s">
-        <v>1</v>
-      </c>
+      <c r="C48" s="6"/>
       <c r="D48" s="3"/>
       <c r="E48" s="4"/>
       <c r="F48" s="5"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B49" s="1"/>
-      <c r="C49" s="6" t="s">
-        <v>1</v>
-      </c>
+      <c r="A49" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B49" s="2"/>
+      <c r="C49" s="6"/>
       <c r="D49" s="3"/>
       <c r="E49" s="4"/>
       <c r="F49" s="5"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="6" t="s">
@@ -1230,8 +1239,8 @@
       <c r="F50" s="5"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="4" t="s">
-        <v>26</v>
+      <c r="A51" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="6" t="s">
@@ -1242,8 +1251,8 @@
       <c r="F51" s="5"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="4" t="s">
-        <v>27</v>
+      <c r="A52" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="B52" s="1"/>
       <c r="C52" s="6" t="s">
@@ -1254,8 +1263,8 @@
       <c r="F52" s="5"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="4" t="s">
-        <v>28</v>
+      <c r="A53" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="B53" s="1"/>
       <c r="C53" s="6" t="s">
@@ -1266,66 +1275,98 @@
       <c r="F53" s="5"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="1"/>
+      <c r="A54" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="B54" s="1"/>
-      <c r="C54" s="6"/>
+      <c r="C54" s="6" t="s">
+        <v>1</v>
+      </c>
       <c r="D54" s="3"/>
       <c r="E54" s="4"/>
       <c r="F54" s="5"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B55" s="2"/>
+      <c r="A55" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55" s="1"/>
       <c r="C55" s="6"/>
       <c r="D55" s="3"/>
       <c r="E55" s="4"/>
       <c r="F55" s="5"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="5" t="s">
-        <v>30</v>
+      <c r="A56" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="B56" s="1"/>
-      <c r="C56" s="6" t="s">
-        <v>1</v>
-      </c>
+      <c r="C56" s="6"/>
       <c r="D56" s="3"/>
-      <c r="E56" s="4"/>
+      <c r="E56" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="F56" s="5"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="5" t="s">
-        <v>31</v>
+      <c r="A57" s="8" t="s">
+        <v>56</v>
       </c>
       <c r="B57" s="1"/>
-      <c r="C57" s="6" t="s">
-        <v>1</v>
-      </c>
+      <c r="C57" s="6"/>
       <c r="D57" s="3"/>
       <c r="E57" s="4"/>
-      <c r="F57" s="5"/>
+      <c r="F57" s="7" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="5" t="s">
-        <v>32</v>
-      </c>
+      <c r="A58" s="1"/>
       <c r="B58" s="1"/>
-      <c r="C58" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D58" s="3"/>
-      <c r="E58" s="4"/>
-      <c r="F58" s="5"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="11"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
-      <c r="C59" s="6"/>
-      <c r="D59" s="3"/>
-      <c r="E59" s="4"/>
-      <c r="F59" s="5"/>
+      <c r="A59" s="9"/>
+      <c r="B59" s="9"/>
+      <c r="C59" s="10"/>
+      <c r="D59" s="10"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="10"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="10"/>
+      <c r="B60" s="10"/>
+      <c r="C60" s="10"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="10"/>
+      <c r="F60" s="10"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="10"/>
+      <c r="B61" s="10"/>
+      <c r="C61" s="10"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="10"/>
+      <c r="F61" s="10"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="10"/>
+      <c r="B62" s="10"/>
+      <c r="C62" s="10"/>
+      <c r="D62" s="10"/>
+      <c r="E62" s="10"/>
+      <c r="F62" s="10"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="10"/>
+      <c r="B63" s="10"/>
+      <c r="C63" s="10"/>
+      <c r="D63" s="10"/>
+      <c r="E63" s="10"/>
+      <c r="F63" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
